--- a/Project/county.xlsx
+++ b/Project/county.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pryor\Documents\GithubProjects\STAT422\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A41A7C-AC5C-422B-A3F0-6507820A7F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFC9846-4732-44FA-A663-E51B56D182ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Beaverhead</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>Total Montana</t>
-  </si>
-  <si>
-    <t>Updated August 22, 2019</t>
   </si>
 </sst>
 </file>
@@ -574,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -2172,1102 +2169,1160 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1">
+        <v>67</v>
+      </c>
+      <c r="D28" s="1">
+        <v>69</v>
+      </c>
+      <c r="E28" s="1">
+        <v>69</v>
+      </c>
+      <c r="F28" s="1">
+        <v>72</v>
+      </c>
+      <c r="G28" s="1">
+        <v>73</v>
+      </c>
+      <c r="H28" s="1">
+        <v>92</v>
+      </c>
+      <c r="I28" s="1">
+        <v>70</v>
+      </c>
+      <c r="J28" s="1">
+        <v>71</v>
+      </c>
+      <c r="K28" s="1">
+        <v>62</v>
+      </c>
+      <c r="L28" s="1">
+        <v>77</v>
+      </c>
+      <c r="M28" s="1">
+        <v>78</v>
+      </c>
+      <c r="N28" s="1">
+        <v>79</v>
+      </c>
+      <c r="O28" s="1">
+        <v>74</v>
+      </c>
+      <c r="P28" s="1">
+        <v>89</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>89</v>
+      </c>
+      <c r="R28" s="1">
+        <v>92</v>
+      </c>
+      <c r="S28" s="1">
+        <v>76</v>
+      </c>
+    </row>
     <row r="29" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C29" s="1">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D29" s="1">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E29" s="1">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F29" s="1">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G29" s="1">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H29" s="1">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I29" s="1">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J29" s="1">
+        <v>76</v>
+      </c>
+      <c r="K29" s="1">
         <v>71</v>
       </c>
-      <c r="K29" s="1">
-        <v>62</v>
-      </c>
       <c r="L29" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M29" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N29" s="1">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O29" s="1">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="P29" s="1">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="Q29" s="1">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="R29" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S29" s="1">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="E30" s="1">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="F30" s="1">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="G30" s="1">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="H30" s="1">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I30" s="1">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="J30" s="1">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="K30" s="1">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="L30" s="1">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="M30" s="1">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="N30" s="1">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="O30" s="1">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="P30" s="1">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="Q30" s="1">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="R30" s="1">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="S30" s="1">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1">
+        <v>16</v>
+      </c>
+      <c r="G31" s="1">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1">
         <v>17</v>
       </c>
-      <c r="D31" s="1">
-        <v>14</v>
-      </c>
-      <c r="E31" s="1">
-        <v>16</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="I31" s="1">
+        <v>20</v>
+      </c>
+      <c r="J31" s="1">
+        <v>20</v>
+      </c>
+      <c r="K31" s="1">
+        <v>25</v>
+      </c>
+      <c r="L31" s="1">
+        <v>20</v>
+      </c>
+      <c r="M31" s="1">
+        <v>19</v>
+      </c>
+      <c r="N31" s="1">
         <v>13</v>
       </c>
-      <c r="G31" s="1">
-        <v>12</v>
-      </c>
-      <c r="H31" s="1">
-        <v>15</v>
-      </c>
-      <c r="I31" s="1">
-        <v>14</v>
-      </c>
-      <c r="J31" s="1">
-        <v>14</v>
-      </c>
-      <c r="K31" s="1">
-        <v>14</v>
-      </c>
-      <c r="L31" s="1">
-        <v>11</v>
-      </c>
-      <c r="M31" s="1">
-        <v>11</v>
-      </c>
-      <c r="N31" s="1">
-        <v>15</v>
-      </c>
       <c r="O31" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P31" s="1">
         <v>16</v>
       </c>
       <c r="Q31" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R31" s="1">
         <v>18</v>
       </c>
       <c r="S31" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F32" s="1">
+        <v>7</v>
+      </c>
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1">
+        <v>15</v>
+      </c>
+      <c r="J32" s="1">
+        <v>15</v>
+      </c>
+      <c r="K32" s="1">
+        <v>17</v>
+      </c>
+      <c r="L32" s="1">
         <v>16</v>
       </c>
-      <c r="G32" s="1">
-        <v>13</v>
-      </c>
-      <c r="H32" s="1">
-        <v>17</v>
-      </c>
-      <c r="I32" s="1">
-        <v>20</v>
-      </c>
-      <c r="J32" s="1">
-        <v>20</v>
-      </c>
-      <c r="K32" s="1">
-        <v>25</v>
-      </c>
-      <c r="L32" s="1">
-        <v>20</v>
-      </c>
       <c r="M32" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N32" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O32" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P32" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q32" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="R32" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S32" s="1">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>8</v>
+        <v>636</v>
       </c>
       <c r="C33" s="1">
-        <v>7</v>
+        <v>632</v>
       </c>
       <c r="D33" s="1">
-        <v>10</v>
+        <v>593</v>
       </c>
       <c r="E33" s="1">
-        <v>6</v>
+        <v>552</v>
       </c>
       <c r="F33" s="1">
-        <v>7</v>
+        <v>557</v>
       </c>
       <c r="G33" s="1">
-        <v>10</v>
+        <v>530</v>
       </c>
       <c r="H33" s="1">
-        <v>14</v>
+        <v>490</v>
       </c>
       <c r="I33" s="1">
-        <v>15</v>
+        <v>446</v>
       </c>
       <c r="J33" s="1">
-        <v>15</v>
+        <v>432</v>
       </c>
       <c r="K33" s="1">
-        <v>17</v>
+        <v>378</v>
       </c>
       <c r="L33" s="1">
-        <v>16</v>
+        <v>351</v>
       </c>
       <c r="M33" s="1">
-        <v>21</v>
+        <v>376</v>
       </c>
       <c r="N33" s="1">
-        <v>15</v>
+        <v>411</v>
       </c>
       <c r="O33" s="1">
-        <v>16</v>
+        <v>427</v>
       </c>
       <c r="P33" s="1">
-        <v>15</v>
+        <v>396</v>
       </c>
       <c r="Q33" s="1">
-        <v>8</v>
+        <v>345</v>
       </c>
       <c r="R33" s="1">
-        <v>14</v>
+        <v>335</v>
       </c>
       <c r="S33" s="1">
-        <v>6</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1">
+        <v>25</v>
+      </c>
+      <c r="E34" s="1">
+        <v>26</v>
+      </c>
+      <c r="F34" s="1">
+        <v>24</v>
+      </c>
+      <c r="G34" s="1">
+        <v>25</v>
+      </c>
+      <c r="H34" s="1">
+        <v>23</v>
+      </c>
+      <c r="I34" s="1">
+        <v>22</v>
+      </c>
+      <c r="J34" s="1">
+        <v>22</v>
+      </c>
+      <c r="K34" s="1">
+        <v>19</v>
+      </c>
+      <c r="L34" s="1">
+        <v>20</v>
+      </c>
+      <c r="M34" s="1">
+        <v>24</v>
+      </c>
+      <c r="N34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="1">
-        <v>636</v>
-      </c>
-      <c r="C34" s="1">
-        <v>632</v>
-      </c>
-      <c r="D34" s="1">
-        <v>593</v>
-      </c>
-      <c r="E34" s="1">
-        <v>552</v>
-      </c>
-      <c r="F34" s="1">
-        <v>557</v>
-      </c>
-      <c r="G34" s="1">
-        <v>530</v>
-      </c>
-      <c r="H34" s="1">
-        <v>490</v>
-      </c>
-      <c r="I34" s="1">
-        <v>446</v>
-      </c>
-      <c r="J34" s="1">
-        <v>432</v>
-      </c>
-      <c r="K34" s="1">
-        <v>378</v>
-      </c>
-      <c r="L34" s="1">
-        <v>351</v>
-      </c>
-      <c r="M34" s="1">
-        <v>376</v>
-      </c>
-      <c r="N34" s="1">
-        <v>411</v>
-      </c>
       <c r="O34" s="1">
-        <v>427</v>
+        <v>34</v>
       </c>
       <c r="P34" s="1">
-        <v>396</v>
+        <v>44</v>
       </c>
       <c r="Q34" s="1">
-        <v>345</v>
+        <v>43</v>
       </c>
       <c r="R34" s="1">
-        <v>335</v>
+        <v>35</v>
       </c>
       <c r="S34" s="1">
-        <v>327</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="C35" s="1">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="D35" s="1">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c r="E35" s="1">
-        <v>26</v>
+        <v>284</v>
       </c>
       <c r="F35" s="1">
-        <v>24</v>
+        <v>317</v>
       </c>
       <c r="G35" s="1">
-        <v>25</v>
+        <v>311</v>
       </c>
       <c r="H35" s="1">
-        <v>23</v>
+        <v>292</v>
       </c>
       <c r="I35" s="1">
-        <v>22</v>
+        <v>332</v>
       </c>
       <c r="J35" s="1">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="K35" s="1">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="L35" s="1">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="M35" s="1">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="N35" s="1">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="O35" s="1">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="P35" s="1">
-        <v>44</v>
+        <v>304</v>
       </c>
       <c r="Q35" s="1">
-        <v>43</v>
+        <v>321</v>
       </c>
       <c r="R35" s="1">
-        <v>35</v>
+        <v>291</v>
       </c>
       <c r="S35" s="1">
-        <v>40</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>287</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>263</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="E36" s="1">
-        <v>284</v>
+        <v>4</v>
       </c>
       <c r="F36" s="1">
-        <v>317</v>
+        <v>5</v>
       </c>
       <c r="G36" s="1">
-        <v>311</v>
+        <v>4</v>
       </c>
       <c r="H36" s="1">
-        <v>292</v>
+        <v>2</v>
       </c>
       <c r="I36" s="1">
-        <v>332</v>
+        <v>6</v>
       </c>
       <c r="J36" s="1">
-        <v>318</v>
+        <v>3</v>
       </c>
       <c r="K36" s="1">
-        <v>283</v>
+        <v>5</v>
       </c>
       <c r="L36" s="1">
-        <v>276</v>
+        <v>6</v>
       </c>
       <c r="M36" s="1">
-        <v>270</v>
+        <v>1</v>
       </c>
       <c r="N36" s="1">
-        <v>269</v>
+        <v>1</v>
       </c>
       <c r="O36" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="P36" s="1">
-        <v>304</v>
+        <v>6</v>
       </c>
       <c r="Q36" s="1">
-        <v>321</v>
+        <v>5</v>
       </c>
       <c r="R36" s="1">
-        <v>291</v>
+        <v>8</v>
       </c>
       <c r="S36" s="1">
-        <v>276</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1">
+        <v>23</v>
+      </c>
+      <c r="D37" s="1">
+        <v>18</v>
+      </c>
+      <c r="E37" s="1">
+        <v>18</v>
+      </c>
+      <c r="F37" s="1">
+        <v>21</v>
+      </c>
+      <c r="G37" s="1">
+        <v>24</v>
+      </c>
+      <c r="H37" s="1">
+        <v>27</v>
+      </c>
+      <c r="I37" s="1">
         <v>34</v>
       </c>
-      <c r="B37" s="1">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1">
-        <v>5</v>
-      </c>
-      <c r="D37" s="1">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1">
-        <v>4</v>
-      </c>
-      <c r="F37" s="1">
-        <v>5</v>
-      </c>
-      <c r="G37" s="1">
-        <v>4</v>
-      </c>
-      <c r="H37" s="1">
-        <v>2</v>
-      </c>
-      <c r="I37" s="1">
-        <v>6</v>
-      </c>
       <c r="J37" s="1">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="K37" s="1">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="L37" s="1">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="M37" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N37" s="1">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="O37" s="1">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="P37" s="1">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="Q37" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="R37" s="1">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="S37" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D38" s="1">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E38" s="1">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F38" s="1">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G38" s="1">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="H38" s="1">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="I38" s="1">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="J38" s="1">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="K38" s="1">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L38" s="1">
+        <v>54</v>
+      </c>
+      <c r="M38" s="1">
         <v>49</v>
       </c>
-      <c r="M38" s="1">
-        <v>50</v>
-      </c>
       <c r="N38" s="1">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O38" s="1">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="P38" s="1">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="Q38" s="1">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="R38" s="1">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="S38" s="1">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="E39" s="1">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F39" s="1">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="G39" s="1">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="H39" s="1">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="I39" s="1">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="J39" s="1">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="K39" s="1">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="L39" s="1">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="M39" s="1">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="N39" s="1">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="O39" s="1">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="P39" s="1">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="Q39" s="1">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="R39" s="1">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="S39" s="1">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>20</v>
+      </c>
+      <c r="C40" s="1">
+        <v>25</v>
+      </c>
+      <c r="D40" s="1">
+        <v>29</v>
+      </c>
+      <c r="E40" s="1">
+        <v>18</v>
+      </c>
+      <c r="F40" s="1">
+        <v>29</v>
+      </c>
+      <c r="G40" s="1">
+        <v>27</v>
+      </c>
+      <c r="H40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="1">
-        <v>9</v>
-      </c>
-      <c r="C40" s="1">
-        <v>12</v>
-      </c>
-      <c r="D40" s="1">
-        <v>12</v>
-      </c>
-      <c r="E40" s="1">
-        <v>11</v>
-      </c>
-      <c r="F40" s="1">
-        <v>11</v>
-      </c>
-      <c r="G40" s="1">
-        <v>6</v>
-      </c>
-      <c r="H40" s="1">
-        <v>8</v>
-      </c>
       <c r="I40" s="1">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J40" s="1">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="K40" s="1">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="L40" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="M40" s="1">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="N40" s="1">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="O40" s="1">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="P40" s="1">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="Q40" s="1">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="R40" s="1">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="S40" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E41" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F41" s="1">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G41" s="1">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H41" s="1">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I41" s="1">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J41" s="1">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="K41" s="1">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="L41" s="1">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M41" s="1">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="N41" s="1">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="O41" s="1">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P41" s="1">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="Q41" s="1">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="R41" s="1">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="S41" s="1">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>5</v>
+        <v>252</v>
       </c>
       <c r="C42" s="1">
-        <v>6</v>
+        <v>270</v>
       </c>
       <c r="D42" s="1">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="E42" s="1">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="F42" s="1">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="G42" s="1">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c r="H42" s="1">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I42" s="1">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="J42" s="1">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="K42" s="1">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="L42" s="1">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M42" s="1">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="N42" s="1">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="O42" s="1">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="P42" s="1">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="Q42" s="1">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="R42" s="1">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="S42" s="1">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>252</v>
+        <v>63</v>
       </c>
       <c r="C43" s="1">
-        <v>270</v>
+        <v>71</v>
       </c>
       <c r="D43" s="1">
-        <v>245</v>
+        <v>48</v>
       </c>
       <c r="E43" s="1">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="F43" s="1">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="G43" s="1">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="H43" s="1">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="I43" s="1">
-        <v>198</v>
+        <v>68</v>
       </c>
       <c r="J43" s="1">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="K43" s="1">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="L43" s="1">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="M43" s="1">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="N43" s="1">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="O43" s="1">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="P43" s="1">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="Q43" s="1">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="R43" s="1">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="S43" s="1">
-        <v>154</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C44" s="1">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D44" s="1">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E44" s="1">
         <v>43</v>
       </c>
       <c r="F44" s="1">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G44" s="1">
+        <v>44</v>
+      </c>
+      <c r="H44" s="1">
+        <v>48</v>
+      </c>
+      <c r="I44" s="1">
+        <v>43</v>
+      </c>
+      <c r="J44" s="1">
+        <v>43</v>
+      </c>
+      <c r="K44" s="1">
+        <v>45</v>
+      </c>
+      <c r="L44" s="1">
+        <v>60</v>
+      </c>
+      <c r="M44" s="1">
         <v>55</v>
       </c>
-      <c r="H44" s="1">
-        <v>61</v>
-      </c>
-      <c r="I44" s="1">
-        <v>68</v>
-      </c>
-      <c r="J44" s="1">
+      <c r="N44" s="1">
+        <v>53</v>
+      </c>
+      <c r="O44" s="1">
+        <v>69</v>
+      </c>
+      <c r="P44" s="1">
         <v>75</v>
       </c>
-      <c r="K44" s="1">
-        <v>72</v>
-      </c>
-      <c r="L44" s="1">
-        <v>83</v>
-      </c>
-      <c r="M44" s="1">
-        <v>71</v>
-      </c>
-      <c r="N44" s="1">
-        <v>59</v>
-      </c>
-      <c r="O44" s="1">
-        <v>56</v>
-      </c>
-      <c r="P44" s="1">
-        <v>61</v>
-      </c>
       <c r="Q44" s="1">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="R44" s="1">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="S44" s="1">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C45" s="1">
+        <v>63</v>
+      </c>
+      <c r="D45" s="1">
+        <v>63</v>
+      </c>
+      <c r="E45" s="1">
         <v>60</v>
       </c>
-      <c r="D45" s="1">
-        <v>43</v>
-      </c>
-      <c r="E45" s="1">
-        <v>43</v>
-      </c>
       <c r="F45" s="1">
+        <v>62</v>
+      </c>
+      <c r="G45" s="1">
         <v>55</v>
       </c>
-      <c r="G45" s="1">
-        <v>44</v>
-      </c>
       <c r="H45" s="1">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I45" s="1">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="J45" s="1">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="K45" s="1">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="L45" s="1">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M45" s="1">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="N45" s="1">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="O45" s="1">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P45" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q45" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R45" s="1">
+        <v>81</v>
+      </c>
+      <c r="S45" s="1">
         <v>78</v>
-      </c>
-      <c r="S45" s="1">
-        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D46" s="1">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E46" s="1">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F46" s="1">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G46" s="1">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H46" s="1">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="I46" s="1">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="J46" s="1">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="K46" s="1">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="L46" s="1">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M46" s="1">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="N46" s="1">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="O46" s="1">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="P46" s="1">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="Q46" s="1">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="R46" s="1">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="S46" s="1">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D47" s="1">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E47" s="1">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F47" s="1">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G47" s="1">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="H47" s="1">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I47" s="1">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="J47" s="1">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K47" s="1">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L47" s="1">
         <v>39</v>
@@ -3276,797 +3331,733 @@
         <v>38</v>
       </c>
       <c r="N47" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O47" s="1">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="P47" s="1">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="Q47" s="1">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="R47" s="1">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="S47" s="1">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="C48" s="1">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="D48" s="1">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="E48" s="1">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="F48" s="1">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="G48" s="1">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="H48" s="1">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="I48" s="1">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="J48" s="1">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="K48" s="1">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="L48" s="1">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="M48" s="1">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="N48" s="1">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="O48" s="1">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="P48" s="1">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="Q48" s="1">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="R48" s="1">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="S48" s="1">
-        <v>30</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="C49" s="1">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="D49" s="1">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="E49" s="1">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="F49" s="1">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="G49" s="1">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="H49" s="1">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="I49" s="1">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="J49" s="1">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="K49" s="1">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="L49" s="1">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="M49" s="1">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="N49" s="1">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="O49" s="1">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="P49" s="1">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="Q49" s="1">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="R49" s="1">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="S49" s="1">
-        <v>186</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>36</v>
+      </c>
+      <c r="C50" s="1">
+        <v>38</v>
+      </c>
+      <c r="D50" s="1">
+        <v>33</v>
+      </c>
+      <c r="E50" s="1">
+        <v>37</v>
+      </c>
+      <c r="F50" s="1">
+        <v>52</v>
+      </c>
+      <c r="G50" s="1">
+        <v>55</v>
+      </c>
+      <c r="H50" s="1">
+        <v>51</v>
+      </c>
+      <c r="I50" s="1">
+        <v>57</v>
+      </c>
+      <c r="J50" s="1">
+        <v>52</v>
+      </c>
+      <c r="K50" s="1">
+        <v>42</v>
+      </c>
+      <c r="L50" s="1">
         <v>47</v>
       </c>
-      <c r="B50" s="1">
-        <v>67</v>
-      </c>
-      <c r="C50" s="1">
+      <c r="M50" s="1">
+        <v>54</v>
+      </c>
+      <c r="N50" s="1">
+        <v>57</v>
+      </c>
+      <c r="O50" s="1">
         <v>61</v>
       </c>
-      <c r="D50" s="1">
-        <v>81</v>
-      </c>
-      <c r="E50" s="1">
-        <v>75</v>
-      </c>
-      <c r="F50" s="1">
-        <v>72</v>
-      </c>
-      <c r="G50" s="1">
-        <v>67</v>
-      </c>
-      <c r="H50" s="1">
-        <v>81</v>
-      </c>
-      <c r="I50" s="1">
-        <v>73</v>
-      </c>
-      <c r="J50" s="1">
-        <v>77</v>
-      </c>
-      <c r="K50" s="1">
-        <v>81</v>
-      </c>
-      <c r="L50" s="1">
-        <v>88</v>
-      </c>
-      <c r="M50" s="1">
-        <v>69</v>
-      </c>
-      <c r="N50" s="1">
-        <v>66</v>
-      </c>
-      <c r="O50" s="1">
-        <v>65</v>
-      </c>
       <c r="P50" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q50" s="1">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="R50" s="1">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="S50" s="1">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C51" s="1">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="D51" s="1">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E51" s="1">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F51" s="1">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G51" s="1">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H51" s="1">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="I51" s="1">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="J51" s="1">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K51" s="1">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="L51" s="1">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="M51" s="1">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N51" s="1">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="O51" s="1">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P51" s="1">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="Q51" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R51" s="1">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="S51" s="1">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C52" s="1">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="D52" s="1">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E52" s="1">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="F52" s="1">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="G52" s="1">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="H52" s="1">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="I52" s="1">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="J52" s="1">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="K52" s="1">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="L52" s="1">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="M52" s="1">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N52" s="1">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="O52" s="1">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="P52" s="1">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="Q52" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R52" s="1">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="S52" s="1">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D53" s="1">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E53" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F53" s="1">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G53" s="1">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H53" s="1">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I53" s="1">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="J53" s="1">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="K53" s="1">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="L53" s="1">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="M53" s="1">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="N53" s="1">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="O53" s="1">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="P53" s="1">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="Q53" s="1">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="R53" s="1">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="S53" s="1">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1">
+        <v>59</v>
+      </c>
+      <c r="D54" s="1">
+        <v>52</v>
+      </c>
+      <c r="E54" s="1">
+        <v>53</v>
+      </c>
+      <c r="F54" s="1">
+        <v>48</v>
+      </c>
+      <c r="G54" s="1">
+        <v>47</v>
+      </c>
+      <c r="H54" s="1">
+        <v>60</v>
+      </c>
+      <c r="I54" s="1">
+        <v>50</v>
+      </c>
+      <c r="J54" s="1">
+        <v>47</v>
+      </c>
+      <c r="K54" s="1">
+        <v>49</v>
+      </c>
+      <c r="L54" s="1">
+        <v>47</v>
+      </c>
+      <c r="M54" s="1">
+        <v>52</v>
+      </c>
+      <c r="N54" s="1">
         <v>51</v>
       </c>
-      <c r="B54" s="1">
-        <v>5</v>
-      </c>
-      <c r="C54" s="1">
-        <v>6</v>
-      </c>
-      <c r="D54" s="1">
-        <v>6</v>
-      </c>
-      <c r="E54" s="1">
-        <v>7</v>
-      </c>
-      <c r="F54" s="1">
-        <v>9</v>
-      </c>
-      <c r="G54" s="1">
-        <v>12</v>
-      </c>
-      <c r="H54" s="1">
-        <v>10</v>
-      </c>
-      <c r="I54" s="1">
-        <v>11</v>
-      </c>
-      <c r="J54" s="1">
-        <v>9</v>
-      </c>
-      <c r="K54" s="1">
-        <v>8</v>
-      </c>
-      <c r="L54" s="1">
-        <v>10</v>
-      </c>
-      <c r="M54" s="1">
-        <v>8</v>
-      </c>
-      <c r="N54" s="1">
-        <v>6</v>
-      </c>
       <c r="O54" s="1">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="P54" s="1">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="Q54" s="1">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="R54" s="1">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="S54" s="1">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D55" s="1">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E55" s="1">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F55" s="1">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G55" s="1">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="H55" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="I55" s="1">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="J55" s="1">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="K55" s="1">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="L55" s="1">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M55" s="1">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="N55" s="1">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="O55" s="1">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="P55" s="1">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="Q55" s="1">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="R55" s="1">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="S55" s="1">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
+        <v>13</v>
+      </c>
+      <c r="C56" s="1">
+        <v>17</v>
+      </c>
+      <c r="D56" s="1">
         <v>18</v>
       </c>
-      <c r="C56" s="1">
-        <v>16</v>
-      </c>
-      <c r="D56" s="1">
-        <v>16</v>
-      </c>
       <c r="E56" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F56" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G56" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H56" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I56" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J56" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K56" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="L56" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="M56" s="1">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="N56" s="1">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="O56" s="1">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="P56" s="1">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="Q56" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R56" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="S56" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>13</v>
+        <v>1124</v>
       </c>
       <c r="C57" s="1">
-        <v>17</v>
+        <v>1173</v>
       </c>
       <c r="D57" s="1">
-        <v>18</v>
+        <v>1193</v>
       </c>
       <c r="E57" s="1">
-        <v>12</v>
+        <v>1080</v>
       </c>
       <c r="F57" s="1">
-        <v>10</v>
+        <v>1086</v>
       </c>
       <c r="G57" s="1">
-        <v>7</v>
+        <v>1127</v>
       </c>
       <c r="H57" s="1">
-        <v>5</v>
+        <v>1039</v>
       </c>
       <c r="I57" s="1">
-        <v>5</v>
+        <v>1026</v>
       </c>
       <c r="J57" s="1">
-        <v>3</v>
+        <v>999</v>
       </c>
       <c r="K57" s="1">
-        <v>5</v>
+        <v>986</v>
       </c>
       <c r="L57" s="1">
-        <v>4</v>
+        <v>967</v>
       </c>
       <c r="M57" s="1">
-        <v>2</v>
+        <v>979</v>
       </c>
       <c r="N57" s="1">
-        <v>3</v>
+        <v>957</v>
       </c>
       <c r="O57" s="1">
-        <v>7</v>
+        <v>935</v>
       </c>
       <c r="P57" s="1">
-        <v>9</v>
+        <v>929</v>
       </c>
       <c r="Q57" s="1">
-        <v>10</v>
+        <v>971</v>
       </c>
       <c r="R57" s="1">
-        <v>10</v>
+        <v>899</v>
       </c>
       <c r="S57" s="1">
-        <v>7</v>
+        <v>866</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>1124</v>
+        <v>0</v>
       </c>
       <c r="C58" s="1">
-        <v>1173</v>
+        <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>1193</v>
+        <v>2</v>
       </c>
       <c r="E58" s="1">
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="F58" s="1">
-        <v>1086</v>
+        <v>1</v>
       </c>
       <c r="G58" s="1">
-        <v>1127</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1">
-        <v>1039</v>
+        <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>1026</v>
+        <v>0</v>
       </c>
       <c r="J58" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>986</v>
+        <v>0</v>
       </c>
       <c r="L58" s="1">
-        <v>967</v>
+        <v>0</v>
       </c>
       <c r="M58" s="1">
-        <v>979</v>
+        <v>86</v>
       </c>
       <c r="N58" s="1">
-        <v>957</v>
+        <v>101</v>
       </c>
       <c r="O58" s="1">
-        <v>935</v>
+        <v>149</v>
       </c>
       <c r="P58" s="1">
-        <v>929</v>
+        <v>47</v>
       </c>
       <c r="Q58" s="1">
-        <v>971</v>
+        <v>0</v>
       </c>
       <c r="R58" s="1">
-        <v>899</v>
+        <v>224</v>
       </c>
       <c r="S58" s="1">
-        <v>866</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>0</v>
+        <v>8678</v>
       </c>
       <c r="C59" s="1">
-        <v>0</v>
+        <v>8843</v>
       </c>
       <c r="D59" s="1">
-        <v>2</v>
+        <v>8860</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>8651</v>
       </c>
       <c r="F59" s="1">
-        <v>1</v>
+        <v>8846</v>
       </c>
       <c r="G59" s="1">
-        <v>0</v>
+        <v>9024</v>
       </c>
       <c r="H59" s="1">
-        <v>0</v>
+        <v>8763</v>
       </c>
       <c r="I59" s="1">
-        <v>0</v>
+        <v>8812</v>
       </c>
       <c r="J59" s="1">
-        <v>0</v>
+        <v>8479</v>
       </c>
       <c r="K59" s="1">
-        <v>0</v>
+        <v>8027</v>
       </c>
       <c r="L59" s="1">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="M59" s="1">
-        <v>86</v>
+        <v>7852</v>
       </c>
       <c r="N59" s="1">
-        <v>101</v>
+        <v>8064</v>
       </c>
       <c r="O59" s="1">
-        <v>149</v>
+        <v>8209</v>
       </c>
       <c r="P59" s="1">
-        <v>47</v>
+        <v>8100</v>
       </c>
       <c r="Q59" s="1">
-        <v>0</v>
+        <v>8331</v>
       </c>
       <c r="R59" s="1">
-        <v>224</v>
+        <v>8253</v>
       </c>
       <c r="S59" s="1">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="1">
-        <v>8678</v>
-      </c>
-      <c r="C60" s="1">
-        <v>8843</v>
-      </c>
-      <c r="D60" s="1">
-        <v>8860</v>
-      </c>
-      <c r="E60" s="1">
-        <v>8651</v>
-      </c>
-      <c r="F60" s="1">
-        <v>8846</v>
-      </c>
-      <c r="G60" s="1">
-        <v>9024</v>
-      </c>
-      <c r="H60" s="1">
-        <v>8763</v>
-      </c>
-      <c r="I60" s="1">
-        <v>8812</v>
-      </c>
-      <c r="J60" s="1">
-        <v>8479</v>
-      </c>
-      <c r="K60" s="1">
-        <v>8027</v>
-      </c>
-      <c r="L60" s="1">
-        <v>7800</v>
-      </c>
-      <c r="M60" s="1">
-        <v>7852</v>
-      </c>
-      <c r="N60" s="1">
-        <v>8064</v>
-      </c>
-      <c r="O60" s="1">
-        <v>8209</v>
-      </c>
-      <c r="P60" s="1">
-        <v>8100</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>8331</v>
-      </c>
-      <c r="R60" s="1">
-        <v>8253</v>
-      </c>
-      <c r="S60" s="1">
         <v>8240</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:19" ht="14.2" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
